--- a/src/test/java/testData/Book1.xlsx
+++ b/src/test/java/testData/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Columns</t>
   </si>
@@ -54,6 +54,15 @@
   </si>
   <si>
     <t>Is Empty,Is Empty,Is Empty</t>
+  </si>
+  <si>
+    <t>ToMarkFav</t>
+  </si>
+  <si>
+    <t>newview</t>
+  </si>
+  <si>
+    <t>ToDelete</t>
   </si>
 </sst>
 </file>
@@ -371,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -385,7 +394,7 @@
     <col min="4" max="4" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -401,8 +410,14 @@
       <c r="E1" t="s">
         <v>7</v>
       </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -417,6 +432,12 @@
       </c>
       <c r="E2" t="s">
         <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
